--- a/JS-SPA-Self-Evaluation-Protocol.xlsx
+++ b/JS-SPA-Self-Evaluation-Protocol.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="19170" windowHeight="7920"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="19170" windowHeight="7920"/>
   </bookViews>
   <sheets>
     <sheet name="JS-SPA-Self-Evaluation-Protocol" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="62">
   <si>
     <t>Days Commit in GitHub</t>
   </si>
@@ -691,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,7 +779,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="6">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>56</v>
@@ -1132,7 +1132,9 @@
       <c r="B39" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="7"/>
+      <c r="C39" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D39" s="7" t="s">
         <v>28</v>
       </c>
@@ -1172,7 +1174,9 @@
       <c r="B43" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="7"/>
+      <c r="C43" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D43" s="7" t="s">
         <v>28</v>
       </c>
@@ -1212,7 +1216,9 @@
       <c r="B47" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="7"/>
+      <c r="C47" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D47" s="7" t="s">
         <v>28</v>
       </c>
@@ -1254,7 +1260,7 @@
       </c>
       <c r="C51" s="11">
         <f>SUM(C6:C50)</f>
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D51" s="11">
         <v>430</v>

--- a/JS-SPA-Self-Evaluation-Protocol.xlsx
+++ b/JS-SPA-Self-Evaluation-Protocol.xlsx
@@ -206,10 +206,10 @@
     <t>https://github.com/itcherokee/AdsProject</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>datepicker needs work</t>
+    <t>datepicker needs work (not operational at the moment)</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -691,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:E10"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,7 +1071,7 @@
         <v>27</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>28</v>
@@ -1083,7 +1083,7 @@
         <v>29</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>28</v>
@@ -1095,7 +1095,7 @@
         <v>30</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>28</v>
@@ -1107,13 +1107,13 @@
         <v>31</v>
       </c>
       <c r="C37" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
@@ -1121,7 +1121,7 @@
         <v>32</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>28</v>
@@ -1133,7 +1133,7 @@
         <v>33</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>28</v>
@@ -1175,7 +1175,7 @@
         <v>37</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>28</v>
@@ -1217,7 +1217,7 @@
         <v>41</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>28</v>
